--- a/mapping/mml_prescription_mapping.xlsx
+++ b/mapping/mml_prescription_mapping.xlsx
@@ -737,7 +737,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/mapping/mml_prescription_mapping.xlsx
+++ b/mapping/mml_prescription_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="96">
   <si>
     <t>DV_COUNT</t>
     <phoneticPr fontId="1"/>
@@ -348,6 +348,10 @@
   </si>
   <si>
     <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0044]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -736,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -793,8 +797,8 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
-        <v>1.2</v>
+      <c r="A3" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>10</v>

--- a/mapping/mml_prescription_mapping.xlsx
+++ b/mapping/mml_prescription_mapping.xlsx
@@ -97,18 +97,10 @@
     <t>mmlPs:code</t>
   </si>
   <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0070]/mappings/target/code_string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mmlPs:system</t>
   </si>
   <si>
     <t>#REQUIRED</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0070]/mappings/target/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>値は常に"="</t>
@@ -121,237 +113,245 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>1.2.2</t>
+  </si>
+  <si>
+    <t>mmlPs:dose</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>Amount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_QUANTITY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0056]/items[at0058]/items[at0144]/magnitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.2.3</t>
+  </si>
+  <si>
+    <t>mmlPs:doseUnit</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0056]/items[at0058]/items[at0144]/units</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.2.4</t>
+  </si>
+  <si>
+    <t>mmPs:frequencyPerDay</t>
+  </si>
+  <si>
+    <t>1.2.5</t>
+  </si>
+  <si>
+    <t>mmPs:startDate</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Start date/time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_DATE_TIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.2.6</t>
+  </si>
+  <si>
+    <t>mmPs:duration</t>
+  </si>
+  <si>
+    <t>Direction duration</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_DURATION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.2.7</t>
+  </si>
+  <si>
+    <t>mmlPs:instruction</t>
+  </si>
+  <si>
+    <t>1.2.8</t>
+  </si>
+  <si>
+    <t>mmlPs:PRN</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>As requied</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_BOOLEAN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.2.9</t>
+  </si>
+  <si>
+    <t>mmlPs:route</t>
+  </si>
+  <si>
+    <t>Route</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.2.10</t>
+  </si>
+  <si>
+    <t>mmlPs:form</t>
+  </si>
+  <si>
+    <t>1.2.11</t>
+  </si>
+  <si>
+    <t>mmlPs:batchNo</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0056]/items[at0057]</t>
+  </si>
+  <si>
+    <t>1.2.12</t>
+  </si>
+  <si>
+    <t>mmlPs:brandSubstitutionPermitted</t>
+  </si>
+  <si>
+    <t>1.2.13</t>
+  </si>
+  <si>
+    <t>mmlPs:longTerm</t>
+  </si>
+  <si>
+    <t>1.2.14</t>
+  </si>
+  <si>
+    <t>mmlPs:additionalInstruction</t>
+  </si>
+  <si>
+    <t>Additional instruction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlPs:narcoticPrescriptionLicenseNumber</t>
+  </si>
+  <si>
+    <t>issued to</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>long term</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.prescription_condition.v0]/items[at0005]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.prescription_condition.v0]/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Frequency</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_QUANTITY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0056]/items[at0058]/items[openEHR-EHR-CLUSTER.daily_timing.v0]/items[at0003]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0113]/items[at0012]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0148]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Patient instruction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0105]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>substitution permitted</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0129]/items[at0132]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Direction sequence</t>
+  </si>
+  <si>
+    <t>Preparation form</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[openEHR-EHR-CLUSTER.medication_preparation.v0]/items[at0071]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0091]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0056]/items[at0058]/items[openEHR-EHR-CLUSTER.daily_timing.v0]/items[at0024]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>narcotic prescription license number</t>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.prescription_condition.v0]/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0044]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0070]/mappings/target/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0070]/mappings/target/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0070]/mappings/match</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.2.2</t>
-  </si>
-  <si>
-    <t>mmlPs:dose</t>
-  </si>
-  <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>Amount</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DV_QUANTITY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0056]/items[at0058]/items[at0144]/magnitude</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.2.3</t>
-  </si>
-  <si>
-    <t>mmlPs:doseUnit</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0056]/items[at0058]/items[at0144]/units</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.2.4</t>
-  </si>
-  <si>
-    <t>mmPs:frequencyPerDay</t>
-  </si>
-  <si>
-    <t>1.2.5</t>
-  </si>
-  <si>
-    <t>mmPs:startDate</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>Start date/time</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DV_DATE_TIME</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.2.6</t>
-  </si>
-  <si>
-    <t>mmPs:duration</t>
-  </si>
-  <si>
-    <t>Direction duration</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DV_DURATION</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.2.7</t>
-  </si>
-  <si>
-    <t>mmlPs:instruction</t>
-  </si>
-  <si>
-    <t>1.2.8</t>
-  </si>
-  <si>
-    <t>mmlPs:PRN</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>As requied</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DV_BOOLEAN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.2.9</t>
-  </si>
-  <si>
-    <t>mmlPs:route</t>
-  </si>
-  <si>
-    <t>Route</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.2.10</t>
-  </si>
-  <si>
-    <t>mmlPs:form</t>
-  </si>
-  <si>
-    <t>1.2.11</t>
-  </si>
-  <si>
-    <t>mmlPs:batchNo</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0056]/items[at0057]</t>
-  </si>
-  <si>
-    <t>1.2.12</t>
-  </si>
-  <si>
-    <t>mmlPs:brandSubstitutionPermitted</t>
-  </si>
-  <si>
-    <t>1.2.13</t>
-  </si>
-  <si>
-    <t>mmlPs:longTerm</t>
-  </si>
-  <si>
-    <t>1.2.14</t>
-  </si>
-  <si>
-    <t>mmlPs:additionalInstruction</t>
-  </si>
-  <si>
-    <t>Additional instruction</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mmlPs:narcoticPrescriptionLicenseNumber</t>
-  </si>
-  <si>
-    <t>issued to</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>long term</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.prescription_condition.v0]/items[at0005]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.prescription_condition.v0]/items[at0001]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Frequency</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DV_QUANTITY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0056]/items[at0058]/items[openEHR-EHR-CLUSTER.daily_timing.v0]/items[at0003]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0113]/items[at0012]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0148]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Patient instruction</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0105]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DV_TEXT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>substitution permitted</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0129]/items[at0132]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Direction sequence</t>
-  </si>
-  <si>
-    <t>Preparation form</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[openEHR-EHR-CLUSTER.medication_preparation.v0]/items[at0071]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0091]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0056]/items[at0058]/items[openEHR-EHR-CLUSTER.daily_timing.v0]/items[at0024]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>narcotic prescription license number</t>
-  </si>
-  <si>
-    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.prescription_condition.v0]/items[at0004]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0044]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -740,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -798,7 +798,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>10</v>
@@ -810,13 +810,13 @@
       </c>
       <c r="F3" s="5"/>
       <c r="I3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" t="s">
         <v>73</v>
-      </c>
-      <c r="J3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -884,24 +884,24 @@
       </c>
       <c r="F7" s="5"/>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="5"/>
       <c r="K8" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
@@ -912,41 +912,41 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="J9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K9" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
@@ -955,88 +955,88 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="K11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="I12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="5"/>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="5"/>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
@@ -1047,46 +1047,46 @@
       </c>
       <c r="F15" s="5"/>
       <c r="I15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s">
         <v>20</v>
       </c>
       <c r="K15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="5"/>
       <c r="I16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
@@ -1097,21 +1097,21 @@
       </c>
       <c r="F17" s="5"/>
       <c r="I17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J17" t="s">
         <v>20</v>
       </c>
       <c r="K17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
@@ -1122,96 +1122,96 @@
       </c>
       <c r="F18" s="5"/>
       <c r="I18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J18" t="s">
         <v>20</v>
       </c>
       <c r="K18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="5"/>
       <c r="I19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J19" t="s">
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="5"/>
       <c r="I20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="5"/>
       <c r="I21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
@@ -1222,13 +1222,13 @@
       </c>
       <c r="F22" s="5"/>
       <c r="I22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J22" t="s">
         <v>20</v>
       </c>
       <c r="K22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
@@ -1236,7 +1236,7 @@
         <v>1.3</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>18</v>
@@ -1248,13 +1248,13 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>20</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/mml_prescription_mapping.xlsx
+++ b/mapping/mml_prescription_mapping.xlsx
@@ -740,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/mapping/mml_prescription_mapping.xlsx
+++ b/mapping/mml_prescription_mapping.xlsx
@@ -4,12 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="13995" windowHeight="7830"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="13995" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -93,18 +91,10 @@
     <t>mmlPs:code</t>
   </si>
   <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0070]/mappings/target/code_string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mmlPs:system</t>
   </si>
   <si>
     <t>#REQUIRED</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0070]/mappings/target/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>値は常に"="</t>
@@ -180,10 +170,6 @@
     <t>boolean</t>
   </si>
   <si>
-    <t>As requied</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DV_BOOLEAN</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -207,9 +193,6 @@
     <t>mmlPs:batchNo</t>
   </si>
   <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0056]/items[at0057]</t>
-  </si>
-  <si>
     <t>1.2.12</t>
   </si>
   <si>
@@ -235,10 +218,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.prescription_condition.v0]/items[at0001]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Frequency</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -247,30 +226,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0056]/items[at0058]/items[openEHR-EHR-CLUSTER.daily_timing.v0]/items[at0003]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0113]/items[at0012]/value</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0148]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Patient instruction</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0105]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DV_TEXT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>substitution permitted</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -366,7 +329,35 @@
     <t>mmPs:duration</t>
   </si>
   <si>
-    <t>+</t>
+    <t>*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_CODED_TEXT</t>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.prescription_condition.v0]/items[at0001]/defining_code/code_string</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0070]/mappings/target/defining_code/code_string</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0070]/mappings/target/defining_code/terminology_id/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0056]/items[at0057]/magnitude</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0056]/items[at0058]/items[openEHR-EHR-CLUSTER.daily_timing.v0]/items[at0003]/magnitude</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0056]/items[at0066]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v0]/activities[at0001]/description[at0002]/items[at0105]/defining_code/code_string</t>
+  </si>
+  <si>
+    <t>As required</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -409,14 +400,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -446,6 +429,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -464,8 +456,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -479,56 +474,65 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -828,38 +832,38 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="4.375" customWidth="1"/>
     <col min="9" max="9" width="32.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="1"/>
@@ -875,81 +879,81 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="I4" t="s">
-        <v>60</v>
+      <c r="F4" s="6"/>
+      <c r="I4" s="17" t="s">
+        <v>56</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>1.2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="I7" s="3" t="s">
-        <v>85</v>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="I7" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="J7" t="s">
         <v>19</v>
@@ -959,437 +963,426 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="10"/>
+      <c r="C9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="K9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="10"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="I11" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="K12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="I13" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="I14" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="I15" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="I16" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="I17" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="K8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="C9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="K9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="J10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="I11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="J11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="K12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="I13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J13" t="s">
-        <v>65</v>
-      </c>
-      <c r="K13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="I14" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J14" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="I15" t="s">
-        <v>42</v>
-      </c>
-      <c r="J15" t="s">
-        <v>43</v>
-      </c>
-      <c r="K15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="I16" t="s">
-        <v>69</v>
-      </c>
-      <c r="J16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="I17" t="s">
-        <v>47</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="F18" s="6"/>
+      <c r="I18" s="17" t="s">
         <v>48</v>
-      </c>
-      <c r="K17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="I18" t="s">
-        <v>51</v>
       </c>
       <c r="J18" t="s">
         <v>19</v>
       </c>
       <c r="K18" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7" t="s">
+      <c r="A19" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="I19" t="s">
-        <v>75</v>
+      <c r="F19" s="6"/>
+      <c r="I19" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="J19" t="s">
         <v>19</v>
       </c>
       <c r="K19" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="A20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="I20" t="s">
-        <v>74</v>
+      <c r="F20" s="6"/>
+      <c r="I20" s="17" t="s">
+        <v>65</v>
       </c>
       <c r="J20" t="s">
         <v>0</v>
       </c>
       <c r="K20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="I21" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="I22" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="I23" s="17" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="I21" t="s">
-        <v>72</v>
-      </c>
-      <c r="J21" t="s">
-        <v>48</v>
-      </c>
-      <c r="K21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="I22" t="s">
-        <v>61</v>
-      </c>
-      <c r="J22" t="s">
-        <v>48</v>
-      </c>
-      <c r="K22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="I23" t="s">
-        <v>59</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
       </c>
       <c r="K23" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" s="11">
+      <c r="A24" s="10">
         <v>1.3</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="7" t="s">
+      <c r="B24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="2" t="s">
-        <v>79</v>
+      <c r="I24" s="17" t="s">
+        <v>70</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="16" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="I4" location="Sheet2!$B$38" display="issued to"/>
+    <hyperlink ref="I7" location="Sheet2!$B$89" display="Medication"/>
+    <hyperlink ref="I11" location="Sheet2!$B$154" display="Dose amount"/>
+    <hyperlink ref="I13" location="Sheet2!$B$173" display="Frequency"/>
+    <hyperlink ref="I14" location="Sheet2!$B$233" display="Order start date/time"/>
+    <hyperlink ref="I15" location="Sheet2!$B$193" display="Direction duration"/>
+    <hyperlink ref="I16" location="Sheet2!$B$217" display="Patient instruction"/>
+    <hyperlink ref="I17" location="Sheet2!$B$183" display="As required"/>
+    <hyperlink ref="I18" location="Sheet2!$B$122" display="Route"/>
+    <hyperlink ref="I19" location="Sheet2!$B$112" display="Preparation form"/>
+    <hyperlink ref="I20" location="Sheet2!$B$138" display="Direction sequence"/>
+    <hyperlink ref="I21" location="Sheet2!$B$253" display="substitution permitted"/>
+    <hyperlink ref="I22" location="Sheet2!$B$58" display="long term"/>
+    <hyperlink ref="I23" location="Sheet2!$B$207" display="Additional instruction"/>
+    <hyperlink ref="I24" location="Sheet2!$B$48" display="narcotic prescription license number"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/mapping/mml_prescription_mapping.xlsx
+++ b/mapping/mml_prescription_mapping.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -495,7 +495,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -545,6 +545,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -890,7 +893,7 @@
   <dimension ref="A2:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1230,26 +1233,26 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="14" t="s">
         <v>69</v>
       </c>
     </row>
